--- a/weather_data.xlsx
+++ b/weather_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,143 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45420.42708333334</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>СЗ</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3.277777777777778</v>
+      </c>
+      <c r="E2" t="n">
+        <v>743.9132326247725</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45420.41666666666</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>СЗ</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3.277777777777778</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45420.41666666666</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>СЗ</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3.277777777777778</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45420.40625</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>СЗ</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3.138888888888889</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45420.40625</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>СЗ</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3.138888888888889</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45420.375</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B7" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>СЗ</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D7" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>no</t>
         </is>
